--- a/src/main/webapp/assets/excel/plan/Mining_Report_17.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Report_17.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tdr-mr\src\main\webapp\assets\excel\plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9750"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Д/д</t>
   </si>
@@ -130,6 +125,9 @@
   </si>
   <si>
     <t>нэгж /сонголтоор/</t>
+  </si>
+  <si>
+    <t>Тодотгол</t>
   </si>
 </sst>
 </file>
@@ -322,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -389,6 +387,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,7 +664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -674,10 +675,10 @@
   <dimension ref="A1:CX3102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="P18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="T8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7:AE7"/>
+      <selection pane="bottomRight" activeCell="AF4" sqref="AF4:AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -760,6 +761,9 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
+      <c r="AF4" s="23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:102" s="3" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -845,6 +849,7 @@
       <c r="AE5" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="AF5" s="23"/>
     </row>
     <row r="6" spans="1:102" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
@@ -892,6 +897,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
+      <c r="AF6" s="23"/>
     </row>
     <row r="7" spans="1:102" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -987,7 +993,9 @@
       <c r="AE7" s="4">
         <v>31</v>
       </c>
-      <c r="AF7" s="6"/>
+      <c r="AF7" s="4">
+        <v>32</v>
+      </c>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
@@ -62277,9 +62285,10 @@
       <c r="Q3102" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="AF4:AF6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="A2:B2"/>
